--- a/utils/recordingExcel/YHT_MLA_Recording.xlsx
+++ b/utils/recordingExcel/YHT_MLA_Recording.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5331571A-25C5-4F7D-8758-2CEC6A0E34ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B484533-E74D-44FE-8A62-EDF64D2B3C06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="253">
   <si>
     <t>ID</t>
   </si>
@@ -174,6 +174,195 @@
     <t>Tone_CF</t>
   </si>
   <si>
+    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
+  </si>
+  <si>
+    <t>Intrinsic_Temporal_Scale</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BLOCKPATH</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231226\Block-1</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231226\Block-2</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231226\Block-3</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231226\Block-4</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231226\Block-5</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231226\Block-6</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-1</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-2</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-3</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-4</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-5</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-6</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-9</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-10</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-11</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-12</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-13</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-14</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-1</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-2</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-3</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-4</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-5</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-6</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-9</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-10</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-11</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-12</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-7</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-8</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-14</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-15</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-16</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-17</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-18</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-19</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-1</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-2</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-3</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-5</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-6</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-7</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-10</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-11</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-12</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-13</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-14</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-15</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231230\Block-1</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231230\Block-2</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231230\Block-3</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231230\Block-4</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231230\Block-5</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20231230\Block-6</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Tone_CF</t>
+  </si>
+  <si>
     <t>BindPassedNoise</t>
   </si>
   <si>
@@ -189,496 +378,417 @@
     <t>Noise</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>BLOCKPATH</t>
+    <t>Tone_CF</t>
+  </si>
+  <si>
+    <t>BindPassedNoise</t>
+  </si>
+  <si>
+    <t>BF_CSD_Nice</t>
+  </si>
+  <si>
+    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
+  </si>
+  <si>
+    <t>Intrinsic_Temporal_Scale</t>
+  </si>
+  <si>
+    <t>Tone_CF</t>
+  </si>
+  <si>
+    <t>BindPassedNoise</t>
+  </si>
+  <si>
+    <t>BF_CSD_Nice</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
+  </si>
+  <si>
+    <t>Intrinsic_Temporal_Scale</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Tone_CF</t>
+  </si>
+  <si>
+    <t>BF_CSD_Nice</t>
+  </si>
+  <si>
+    <t>BindPassedNoise</t>
+  </si>
+  <si>
+    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
+  </si>
+  <si>
+    <t>Intrinsic_Temporal_Scale</t>
+  </si>
+  <si>
+    <t>Tone_CF</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>BF_CSD_Nice</t>
+  </si>
+  <si>
+    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
+  </si>
+  <si>
+    <t>BindPassedNoise</t>
+  </si>
+  <si>
+    <t>Intrinsic_Temporal_Scale</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Tone_CF</t>
+  </si>
+  <si>
+    <t>BF_CSD_Nice</t>
+  </si>
+  <si>
+    <t>BindPassedNoise</t>
+  </si>
+  <si>
+    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
+  </si>
+  <si>
+    <t>Intrinsic_Temporal_Scale</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Tone_CF</t>
+  </si>
+  <si>
+    <t>BF_CSD_Nice</t>
+  </si>
+  <si>
+    <t>BindPassedNoise</t>
+  </si>
+  <si>
+    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
+  </si>
+  <si>
+    <t>Intrinsic_Temporal_Scale</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Tone_CF</t>
+  </si>
+  <si>
+    <t>BF_CSD_Nice</t>
+  </si>
+  <si>
+    <t>BindPassedNoise</t>
+  </si>
+  <si>
+    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
+  </si>
+  <si>
+    <t>Intrinsic_Temporal_Scale</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Tone_CF</t>
+  </si>
+  <si>
+    <t>BF_CSD_Nice</t>
+  </si>
+  <si>
+    <t>BindPassedNoise</t>
+  </si>
+  <si>
+    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
+  </si>
+  <si>
+    <t>Intrinsic_Temporal_Scale</t>
+  </si>
+  <si>
+    <t>sitePos</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231226\Block-1</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231226\Block-2</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231226\Block-3</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231226\Block-4</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231226\Block-5</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231226\Block-6</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-1</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-2</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-3</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-4</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-5</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-6</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-9</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-10</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-11</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-12</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-13</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231227\Block-14</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-1</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-2</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-3</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-4</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-5</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-6</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-9</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-10</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-11</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-12</t>
-  </si>
-  <si>
-    <t>paradigm</t>
+    <t>A49L17_AC</t>
+  </si>
+  <si>
+    <t>A51L17_AC</t>
+  </si>
+  <si>
+    <t>A43L17_AC</t>
+  </si>
+  <si>
+    <t>A48L17_AC</t>
+  </si>
+  <si>
+    <t>A47L17_AC</t>
+  </si>
+  <si>
+    <t>A46L17_AC</t>
+  </si>
+  <si>
+    <t>A55L17_AC</t>
+  </si>
+  <si>
+    <t>A54L17_AC</t>
+  </si>
+  <si>
+    <t>A51L15_AC</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>40900</t>
+  </si>
+  <si>
+    <t>37955</t>
+  </si>
+  <si>
+    <t>49132</t>
+  </si>
+  <si>
+    <t>42414</t>
+  </si>
+  <si>
+    <t>43483</t>
+  </si>
+  <si>
+    <t>43000</t>
+  </si>
+  <si>
+    <t>37377</t>
+  </si>
+  <si>
+    <t>37550</t>
+  </si>
+  <si>
+    <t>36560</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>lfpExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>spkExported</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>badChannel</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>recTech</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>TDT</t>
+  </si>
+  <si>
+    <t>chNum</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>SR_AP</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>12207.0312</t>
+  </si>
+  <si>
+    <t>soundPath</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>isECoG</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>ks_ChSel</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ks_ID</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>9201</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>13249</t>
+  </si>
+  <si>
     <t>Noise</t>
-  </si>
-  <si>
-    <t>Tone_CF</t>
-  </si>
-  <si>
-    <t>BindPassedNoise</t>
-  </si>
-  <si>
-    <t>BF_CSD_Nice</t>
-  </si>
-  <si>
-    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
-  </si>
-  <si>
-    <t>Intrinsic_Temporal_Scale</t>
-  </si>
-  <si>
-    <t>Noise</t>
-  </si>
-  <si>
-    <t>Tone_CF</t>
-  </si>
-  <si>
-    <t>BindPassedNoise</t>
-  </si>
-  <si>
-    <t>BF_CSD_Nice</t>
-  </si>
-  <si>
-    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
-  </si>
-  <si>
-    <t>Intrinsic_Temporal_Scale</t>
-  </si>
-  <si>
-    <t>Tone_CF</t>
-  </si>
-  <si>
-    <t>BindPassedNoise</t>
-  </si>
-  <si>
-    <t>BF_CSD_Nice</t>
-  </si>
-  <si>
-    <t>Noise</t>
-  </si>
-  <si>
-    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
-  </si>
-  <si>
-    <t>Intrinsic_Temporal_Scale</t>
-  </si>
-  <si>
-    <t>Noise</t>
-  </si>
-  <si>
-    <t>Tone_CF</t>
-  </si>
-  <si>
-    <t>BF_CSD_Nice</t>
-  </si>
-  <si>
-    <t>BindPassedNoise</t>
-  </si>
-  <si>
-    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
-  </si>
-  <si>
-    <t>Intrinsic_Temporal_Scale</t>
-  </si>
-  <si>
-    <t>Tone_CF</t>
-  </si>
-  <si>
-    <t>Noise</t>
-  </si>
-  <si>
-    <t>BF_CSD_Nice</t>
-  </si>
-  <si>
-    <t>MSTIRegularity-0.3s-BG-8.4ms-Si-7ms-Sii-10.1ms</t>
-  </si>
-  <si>
-    <t>BindPassedNoise</t>
-  </si>
-  <si>
-    <t>Intrinsic_Temporal_Scale</t>
-  </si>
-  <si>
-    <t>sitePos</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>A49L17_AC</t>
-  </si>
-  <si>
-    <t>A51L17_AC</t>
-  </si>
-  <si>
-    <t>A43L17_AC</t>
-  </si>
-  <si>
-    <t>A48L17_AC</t>
-  </si>
-  <si>
-    <t>A47L17_AC</t>
-  </si>
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>40900</t>
-  </si>
-  <si>
-    <t>37955</t>
-  </si>
-  <si>
-    <t>49132</t>
-  </si>
-  <si>
-    <t>42414</t>
-  </si>
-  <si>
-    <t>43483</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20240304\Block-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20240304\Block-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20240304\Block-3</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20240304\Block-4</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20240304\Block-5</t>
+  </si>
+  <si>
+    <t>J:\MonkeyLA\DDZ\ddz20240304\Block-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreqTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A45L15_AC</t>
+  </si>
+  <si>
+    <t>A45L15_AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40502</t>
+  </si>
+  <si>
+    <t>40502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>lfpExported</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>spkExported</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>badChannel</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>recTech</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>TDT</t>
-  </si>
-  <si>
-    <t>chNum</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>SR_AP</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>12207.0312</t>
-  </si>
-  <si>
-    <t>soundPath</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>cf</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>isECoG</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>dz</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>ks_ChSel</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>ks_ID</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A46L17_AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231228\Block-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37377</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A55L17_AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231229\Block-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A54L17_AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37550</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231230\Block-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231230\Block-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231230\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231230\Block-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231230\Block-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J:\MonkeyLA\DDZ\ddz20231230\Block-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A51L15_AC</t>
-  </si>
-  <si>
-    <t>A51L15_AC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36560</t>
+    <t>ThreeStatistics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +832,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -790,11 +900,18 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -830,6 +947,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1110,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL56"/>
+  <dimension ref="A1:AL62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1139,61 +1257,61 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1201,58 +1319,58 @@
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="T2" s="23"/>
       <c r="U2" s="23"/>
@@ -1274,46 +1392,46 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -1321,49 +1439,49 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="S4">
-        <v>1486</v>
+        <v>224</v>
+      </c>
+      <c r="S4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
@@ -1371,46 +1489,46 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -1418,46 +1536,46 @@
         <v>1</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -1465,46 +1583,46 @@
         <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:38" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1512,46 +1630,46 @@
         <v>1</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
@@ -1559,46 +1677,46 @@
         <v>2</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
@@ -1606,49 +1724,49 @@
         <v>2</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="S10">
-        <v>9201</v>
+        <v>224</v>
+      </c>
+      <c r="S10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
@@ -1656,46 +1774,46 @@
         <v>2</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
@@ -1703,46 +1821,46 @@
         <v>2</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
@@ -1750,46 +1868,46 @@
         <v>2</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1797,46 +1915,46 @@
         <v>2</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N14" s="26" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O14" s="26" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P14" s="26" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
@@ -1844,49 +1962,49 @@
         <v>3</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="S15">
-        <v>860</v>
+        <v>224</v>
+      </c>
+      <c r="S15" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
@@ -1894,46 +2012,46 @@
         <v>3</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -1941,46 +2059,46 @@
         <v>3</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1988,46 +2106,46 @@
         <v>3</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -2035,46 +2153,46 @@
         <v>3</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N19" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2082,46 +2200,46 @@
         <v>3</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2129,46 +2247,46 @@
         <v>4</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2176,46 +2294,46 @@
         <v>4</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2223,49 +2341,49 @@
         <v>4</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="S23">
-        <v>1032</v>
+        <v>224</v>
+      </c>
+      <c r="S23" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2273,46 +2391,46 @@
         <v>4</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -2320,46 +2438,46 @@
         <v>4</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2367,46 +2485,46 @@
         <v>4</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N26" s="26" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2414,46 +2532,46 @@
         <v>5</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -2461,46 +2579,46 @@
         <v>5</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -2508,49 +2626,49 @@
         <v>5</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="S29">
-        <v>860</v>
+        <v>224</v>
+      </c>
+      <c r="S29" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -2558,46 +2676,46 @@
         <v>5</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -2605,46 +2723,46 @@
         <v>5</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2652,46 +2770,46 @@
         <v>5</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="O32" s="26" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="P32" s="26" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2699,46 +2817,46 @@
         <v>6</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N33" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -2746,46 +2864,46 @@
         <v>6</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -2793,49 +2911,49 @@
         <v>6</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N35" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="S35">
-        <v>860</v>
+        <v>224</v>
+      </c>
+      <c r="S35" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -2843,46 +2961,46 @@
         <v>6</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N36" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -2890,46 +3008,46 @@
         <v>6</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N37" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2937,46 +3055,46 @@
         <v>6</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J38" s="26" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L38" s="26" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N38" s="26" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O38" s="26" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P38" s="26" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2984,46 +3102,46 @@
         <v>7</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="D39" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="G39" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O39" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -3031,46 +3149,46 @@
         <v>7</v>
       </c>
       <c r="B40" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="24" t="s">
+      <c r="F40" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E40" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="G40" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N40" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O40" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P40" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -3078,49 +3196,49 @@
         <v>7</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="D41" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="G41" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N41" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="S41">
-        <v>1032</v>
+        <v>224</v>
+      </c>
+      <c r="S41" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -3128,46 +3246,46 @@
         <v>7</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D42" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="G42" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N42" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -3175,46 +3293,46 @@
         <v>7</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="D43" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E43" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="G43" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3222,46 +3340,46 @@
         <v>7</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="D44" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="E44" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>33</v>
-      </c>
       <c r="G44" s="26" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L44" s="26" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N44" s="26" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O44" s="26" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P44" s="26" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3269,46 +3387,46 @@
         <v>8</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -3316,46 +3434,46 @@
         <v>8</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -3363,49 +3481,49 @@
         <v>8</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L47" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N47" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O47" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P47" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="S47">
-        <v>860</v>
+        <v>224</v>
+      </c>
+      <c r="S47" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
@@ -3413,46 +3531,46 @@
         <v>8</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P48" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
@@ -3460,46 +3578,46 @@
         <v>8</v>
       </c>
       <c r="B49" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="H49" s="24" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K49" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P49" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:19" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3507,46 +3625,46 @@
         <v>8</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K50" s="26" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L50" s="26" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N50" s="26" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O50" s="26" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P50" s="26" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3554,46 +3672,46 @@
         <v>9</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K51" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L51" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N51" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P51" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -3601,49 +3719,49 @@
         <v>9</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K52" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L52" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N52" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P52" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="S52">
-        <v>13249</v>
+        <v>224</v>
+      </c>
+      <c r="S52" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
@@ -3651,46 +3769,46 @@
         <v>9</v>
       </c>
       <c r="B53" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="I53" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N53" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O53" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P53" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
@@ -3698,46 +3816,46 @@
         <v>9</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L54" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P54" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
@@ -3745,46 +3863,46 @@
         <v>9</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L55" s="24" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="N55" s="24" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="O55" s="24" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="P55" s="24" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:19" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3792,45 +3910,327 @@
         <v>9</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="J56" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K56" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L56" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="N56" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="O56" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="P56" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>10</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K56" s="26" t="s">
+      <c r="K57" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L56" s="26" t="s">
+      <c r="L57" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N56" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O56" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P56" s="26" t="s">
+      <c r="N57" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O57" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P57" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K58" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L58" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N58" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P58" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L59" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N59" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O59" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P59" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K60" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L60" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N60" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O60" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P60" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L61" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N61" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P61" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25">
+        <v>10</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L62" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N62" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O62" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P62" s="26" t="s">
         <v>44</v>
       </c>
     </row>
